--- a/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
+++ b/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -217,22 +217,106 @@
 </t>
   </si>
   <si>
-    <t>Immunization.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.meta.extension</t>
+    <t>Immunization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Immunization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Immunization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Immunization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Immunization.extension</t>
   </si>
   <si>
     <t>extensions
@@ -246,259 +330,19 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
+    <t>DomainResource.extension</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Immunization.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Immunization.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Immunization.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Immunization.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Immunization.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Limited security label to convey identity level of assurance for patient referenced by this resource. Coding SHOULD include only code.</t>
-  </si>
-  <si>
-    <t>Limited security metadata which conveys an attestation that the immunization provider performed a certain level of identity verification at the time of service. If known, Issuers SHALL attest to the highest level that applies.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/smarthealthcards-vaccination/ValueSet/identity-assurance-level-value-set</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Immunization.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Immunization.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Immunization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Immunization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Immunization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Immunization.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
     <t>Immunization.modifierExtension</t>
   </si>
   <si>
@@ -550,6 +394,9 @@
   </si>
   <si>
     <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>A set of codes indicating the current status of an Immunization.</t>
@@ -698,6 +545,9 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -949,7 +799,25 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1044,6 +912,9 @@
   </si>
   <si>
     <t>Reasons why the vaccine was administered.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>The reason why a vaccine was administered.</t>
@@ -1505,7 +1376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN72"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,7 +1395,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="120.1796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="60.44921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1537,11 +1408,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="96.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.85546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2035,21 +1906,23 @@
         <v>41</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>41</v>
@@ -2098,7 +1971,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2110,7 +1983,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>41</v>
@@ -2119,7 +1992,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>41</v>
@@ -2130,18 +2003,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -2188,28 +2061,28 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>79</v>
@@ -2218,13 +2091,13 @@
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>41</v>
@@ -2233,7 +2106,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>41</v>
@@ -2244,11 +2117,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2264,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>82</v>
@@ -2347,7 +2220,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>41</v>
@@ -2358,18 +2231,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>41</v>
@@ -2378,19 +2251,19 @@
         <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2440,19 +2313,19 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>41</v>
@@ -2461,7 +2334,7 @@
         <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>41</v>
@@ -2472,18 +2345,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>41</v>
@@ -2492,19 +2365,19 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2554,19 +2427,19 @@
         <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>41</v>
@@ -2575,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -2586,11 +2459,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2603,24 +2476,26 @@
         <v>41</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2668,7 +2543,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2680,7 +2555,7 @@
         <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
@@ -2689,7 +2564,7 @@
         <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>41</v>
@@ -2698,9 +2573,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2711,29 +2586,27 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -2758,11 +2631,13 @@
         <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X11" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y11" t="s" s="2">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>41</v>
@@ -2780,7 +2655,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2795,24 +2670,24 @@
         <v>64</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2820,31 +2695,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2870,37 +2745,37 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="X12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AF12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>41</v>
@@ -2909,16 +2784,16 @@
         <v>64</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2926,7 +2801,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2943,22 +2818,22 @@
         <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2984,13 +2859,11 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -3008,7 +2881,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3023,13 +2896,13 @@
         <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -3038,9 +2911,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3048,32 +2921,30 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -3098,13 +2969,11 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X14" t="s" s="2">
         <v>132</v>
       </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -3122,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>51</v>
@@ -3134,60 +3003,58 @@
         <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3236,10 +3103,10 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>51</v>
@@ -3251,16 +3118,16 @@
         <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3268,18 +3135,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
@@ -3291,17 +3158,15 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -3350,31 +3215,31 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3382,39 +3247,39 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3452,87 +3317,81 @@
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3580,19 +3439,19 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
@@ -3601,10 +3460,10 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3612,7 +3471,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3623,7 +3482,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -3632,18 +3491,20 @@
         <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3692,13 +3553,13 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -3707,24 +3568,24 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3732,31 +3593,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3782,13 +3643,11 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3806,10 +3665,10 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>51</v>
@@ -3821,24 +3680,24 @@
         <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3846,13 +3705,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3861,17 +3720,15 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3896,11 +3753,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3918,7 +3777,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3933,16 +3792,16 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3950,7 +3809,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3970,16 +3829,16 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4006,11 +3865,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -4028,10 +3889,10 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>51</v>
@@ -4040,27 +3901,27 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4080,16 +3941,16 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4140,10 +4001,10 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>51</v>
@@ -4152,27 +4013,27 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4195,13 +4056,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4252,7 +4113,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4267,16 +4128,16 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4284,7 +4145,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4292,32 +4153,30 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4342,32 +4201,32 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>51</v>
@@ -4379,24 +4238,24 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4419,13 +4278,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4452,13 +4311,11 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4476,7 +4333,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4494,21 +4351,21 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4528,20 +4385,18 @@
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4590,7 +4445,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4608,21 +4463,21 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4630,32 +4485,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4680,11 +4533,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4702,13 +4557,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4717,24 +4572,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4742,13 +4597,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4757,13 +4612,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4814,7 +4669,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4826,41 +4681,41 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4869,15 +4724,17 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4926,71 +4783,75 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5038,39 +4899,39 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>263</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5090,16 +4951,16 @@
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5126,13 +4987,13 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5150,7 +5011,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5165,24 +5026,24 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5190,22 +5051,22 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>271</v>
@@ -5213,7 +5074,9 @@
       <c r="L33" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5238,11 +5101,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5260,10 +5125,10 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>51</v>
@@ -5275,19 +5140,19 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5303,7 +5168,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -5312,16 +5177,16 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>177</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5348,11 +5213,13 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5376,7 +5243,7 @@
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -5385,19 +5252,19 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5413,7 +5280,7 @@
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
@@ -5425,13 +5292,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5458,13 +5325,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5488,7 +5355,7 @@
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -5497,13 +5364,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5512,9 +5379,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5522,28 +5389,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5594,7 +5461,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5609,13 +5476,13 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5626,7 +5493,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5643,26 +5510,30 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="Q37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5706,7 +5577,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5718,16 +5589,16 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5738,11 +5609,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5761,17 +5632,15 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5796,13 +5665,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5820,7 +5689,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5832,7 +5701,7 @@
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
@@ -5841,7 +5710,7 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5852,11 +5721,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5869,26 +5738,22 @@
         <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5936,7 +5801,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5948,7 +5813,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -5957,7 +5822,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5968,7 +5833,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5988,16 +5853,16 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6024,13 +5889,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6048,7 +5913,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6060,16 +5925,16 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6078,41 +5943,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6162,31 +6027,31 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6194,11 +6059,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6211,22 +6076,26 @@
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6274,7 +6143,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6286,16 +6155,16 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>325</v>
+        <v>95</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6306,7 +6175,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6317,7 +6186,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6329,13 +6198,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6362,13 +6231,13 @@
         <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>41</v>
@@ -6386,13 +6255,13 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6401,13 +6270,13 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6418,7 +6287,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6429,7 +6298,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6441,13 +6310,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6498,13 +6367,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6513,13 +6382,13 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6528,9 +6397,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6544,33 +6413,29 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6614,7 +6479,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6626,16 +6491,16 @@
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6646,7 +6511,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6657,7 +6522,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -6669,13 +6534,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6702,13 +6567,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6726,13 +6591,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6744,10 +6609,10 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6758,7 +6623,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6781,13 +6646,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>291</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6814,13 +6679,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6838,7 +6703,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6850,16 +6715,16 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>352</v>
+        <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6870,7 +6735,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6893,13 +6758,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>66</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6926,13 +6791,11 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6950,7 +6813,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>68</v>
+        <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6962,7 +6825,7 @@
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>41</v>
@@ -6971,7 +6834,7 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -6982,11 +6845,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7005,16 +6868,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7064,7 +6927,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7076,16 +6939,16 @@
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>69</v>
+        <v>345</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7096,43 +6959,39 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7180,19 +7039,19 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7201,7 +7060,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7212,18 +7071,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7235,15 +7094,17 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>357</v>
+        <v>99</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7292,28 +7153,28 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7324,39 +7185,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7404,19 +7269,19 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
@@ -7425,7 +7290,7 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7436,7 +7301,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7459,13 +7324,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7516,7 +7381,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7534,10 +7399,10 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7548,7 +7413,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7571,13 +7436,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7628,7 +7493,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7646,10 +7511,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>150</v>
+        <v>358</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7660,7 +7525,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7671,7 +7536,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7683,13 +7548,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7716,13 +7581,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>375</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7740,13 +7605,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7758,10 +7623,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>150</v>
+        <v>363</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7770,9 +7635,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7780,13 +7645,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7795,13 +7660,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7828,11 +7693,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -7850,13 +7717,13 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -7871,7 +7738,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -7882,7 +7749,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7893,7 +7760,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -7905,17 +7772,15 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -7964,28 +7829,28 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>381</v>
+        <v>252</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>386</v>
+        <v>253</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -7996,18 +7861,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8019,15 +7884,17 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8076,19 +7943,19 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
@@ -8097,7 +7964,7 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8108,11 +7975,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8125,24 +7992,26 @@
         <v>41</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8190,7 +8059,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8202,7 +8071,7 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8211,7 +8080,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8222,43 +8091,39 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8306,19 +8171,19 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8327,7 +8192,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8338,7 +8203,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8361,13 +8226,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8418,7 +8283,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8436,10 +8301,10 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>393</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8450,7 +8315,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8461,7 +8326,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8473,13 +8338,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>395</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8506,13 +8371,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8530,13 +8395,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8548,10 +8413,10 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>398</v>
+        <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>399</v>
+        <v>95</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8560,9 +8425,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8570,13 +8435,13 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8585,15 +8450,17 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8642,10 +8509,10 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>51</v>
@@ -8660,10 +8527,10 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>404</v>
+        <v>95</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8672,9 +8539,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8682,13 +8549,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -8697,15 +8564,17 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -8754,13 +8623,13 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
@@ -8775,923 +8644,17 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN72" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN72">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9701,7 +8664,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
+++ b/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="429">
   <si>
     <t>Path</t>
   </si>
@@ -650,6 +650,114 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
+    <t>Immunization.location.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.location.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Immunization.location.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Immunization.location.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Immunization.location.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Immunization.location.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Immunization.manufacturer</t>
   </si>
   <si>
@@ -672,6 +780,24 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
   </si>
   <si>
+    <t>Immunization.manufacturer.id</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer.extension</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer.reference</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer.type</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer.identifier</t>
+  </si>
+  <si>
+    <t>Immunization.manufacturer.display</t>
+  </si>
+  <si>
     <t>Immunization.lotNumber</t>
   </si>
   <si>
@@ -799,25 +925,7 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Immunization.performer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -881,6 +989,24 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.id</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.extension</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.reference</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.type</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.identifier</t>
+  </si>
+  <si>
+    <t>Immunization.performer.actor.display</t>
   </si>
   <si>
     <t>Immunization.note</t>
@@ -1376,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1412,7 +1538,7 @@
     <col min="25" max="25" width="96.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.85546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3807,7 +3933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>202</v>
       </c>
@@ -3817,13 +3943,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3832,13 +3958,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3889,7 +4015,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3901,41 +4027,41 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -3944,15 +4070,17 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3989,51 +4117,51 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>212</v>
+        <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4053,18 +4181,20 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -4122,7 +4252,7 @@
         <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>64</v>
@@ -4131,10 +4261,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4145,7 +4275,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4165,18 +4295,20 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4203,9 +4335,11 @@
       <c r="W25" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="X25" s="2"/>
+      <c r="X25" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4223,7 +4357,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4241,21 +4375,21 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>228</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4275,18 +4409,20 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4311,11 +4447,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4351,21 +4489,21 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4373,30 +4511,32 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4445,7 +4585,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4463,10 +4603,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4477,7 +4617,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4488,7 +4628,7 @@
         <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>52</v>
@@ -4497,16 +4637,16 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4557,13 +4697,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4572,24 +4712,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4615,10 +4755,10 @@
         <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>204</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4669,7 +4809,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4690,7 +4830,7 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4701,7 +4841,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4730,7 +4870,7 @@
         <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>101</v>
@@ -4771,19 +4911,19 @@
         <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4804,7 +4944,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4815,43 +4955,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -4899,19 +5037,19 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
@@ -4931,7 +5069,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4954,15 +5092,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4990,10 +5130,10 @@
         <v>132</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5011,7 +5151,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5026,13 +5166,13 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5041,9 +5181,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5051,13 +5191,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5066,16 +5206,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5125,10 +5265,10 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>51</v>
@@ -5140,24 +5280,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5165,13 +5305,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5180,15 +5320,17 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5237,13 +5379,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -5252,13 +5394,13 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5267,9 +5409,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5277,13 +5419,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5292,13 +5434,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5325,13 +5467,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5349,39 +5491,39 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5392,7 +5534,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5404,13 +5546,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5461,13 +5603,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5476,13 +5618,13 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5493,7 +5635,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5510,30 +5652,26 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5553,13 +5691,11 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
@@ -5577,7 +5713,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5589,27 +5725,27 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5620,7 +5756,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5635,10 +5771,10 @@
         <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5665,13 +5801,11 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5689,13 +5823,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5707,21 +5841,21 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5732,7 +5866,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5744,13 +5878,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5801,28 +5935,28 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>95</v>
+        <v>281</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5831,9 +5965,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5841,28 +5975,28 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5913,28 +6047,28 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -5945,18 +6079,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -5968,17 +6102,15 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6027,19 +6159,19 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
@@ -6048,7 +6180,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6059,11 +6191,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6076,26 +6208,24 @@
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6143,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6164,7 +6294,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6175,39 +6305,43 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6255,25 +6389,25 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>95</v>
@@ -6287,7 +6421,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6307,16 +6441,16 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6343,13 +6477,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6367,7 +6501,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6382,13 +6516,13 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6397,9 +6531,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6407,30 +6541,32 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6479,10 +6615,10 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>51</v>
@@ -6494,16 +6630,16 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6511,7 +6647,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6534,13 +6670,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6591,7 +6727,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>326</v>
+        <v>205</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6603,16 +6739,16 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6623,11 +6759,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6646,15 +6782,17 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>99</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6679,31 +6817,31 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>334</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6715,16 +6853,16 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6735,7 +6873,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6755,18 +6893,20 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>213</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6791,11 +6931,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6813,7 +6955,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6822,7 +6964,7 @@
         <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>64</v>
@@ -6845,7 +6987,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6856,7 +6998,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -6865,19 +7007,19 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>219</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>220</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>343</v>
+        <v>221</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6903,13 +7045,13 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -6927,13 +7069,13 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -6945,10 +7087,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -6959,7 +7101,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6979,18 +7121,20 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7039,7 +7183,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7051,7 +7195,7 @@
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7060,7 +7204,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7069,41 +7213,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7153,19 +7297,19 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
@@ -7174,7 +7318,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7185,11 +7329,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7202,26 +7346,22 @@
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7269,7 +7409,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7281,16 +7421,16 @@
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>95</v>
+        <v>323</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7301,7 +7441,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7312,7 +7452,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7324,13 +7464,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7357,13 +7497,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7381,13 +7521,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7396,13 +7536,13 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>171</v>
+        <v>331</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7413,7 +7553,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7424,7 +7564,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7436,13 +7576,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7493,13 +7633,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7508,13 +7648,13 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>41</v>
+        <v>335</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>95</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7525,7 +7665,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7542,26 +7682,30 @@
         <v>41</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>181</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7605,7 +7749,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7617,16 +7761,16 @@
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>363</v>
+        <v>95</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7635,9 +7779,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7645,13 +7789,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7660,13 +7804,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7693,13 +7837,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -7717,7 +7861,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7749,7 +7893,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7760,7 +7904,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -7772,13 +7916,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>250</v>
+        <v>349</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7829,19 +7973,19 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
@@ -7850,7 +7994,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -7861,18 +8005,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -7884,17 +8028,15 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -7943,19 +8085,19 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
@@ -7964,7 +8106,7 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -7975,11 +8117,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7992,26 +8134,24 @@
         <v>41</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8059,7 +8199,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8080,7 +8220,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8091,39 +8231,43 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>371</v>
+        <v>293</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8171,19 +8315,19 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>370</v>
+        <v>295</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8203,7 +8347,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8226,13 +8370,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8283,7 +8427,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8301,7 +8445,7 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>95</v>
@@ -8315,7 +8459,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8326,7 +8470,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8338,13 +8482,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8371,13 +8515,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8395,13 +8539,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8425,9 +8569,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8435,13 +8579,13 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8450,17 +8594,15 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>382</v>
+        <v>175</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8509,10 +8651,10 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>51</v>
@@ -8527,7 +8669,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>95</v>
@@ -8541,7 +8683,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8564,17 +8706,15 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>382</v>
+        <v>175</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -8623,7 +8763,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8641,7 +8781,7 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>95</v>
@@ -8653,8 +8793,2040 @@
         <v>41</v>
       </c>
     </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X66" s="2"/>
+      <c r="Y66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8664,7 +10836,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
+++ b/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="388">
   <si>
     <t>Path</t>
   </si>
@@ -448,16 +448,10 @@
     <t>Vaccine product administered</t>
   </si>
   <si>
-    <t>Implementers SHALL use a code from VaccineCredentialVaccineValueSet if this value set contains an appropriate code.
-For COVID-19-related vaccinations, implementers SHOULD use one of the CVX codes [listed on the CDC's COVID-19 vaccine-related codes list](https://www.cdc.gov/vaccines/programs/iis/COVID-19-related-codes.html) whenever possible.
-We are actively investigating adding additional codes that are not United States-centric.</t>
+    <t>TBD</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/smarthealthcards-vaccination/ValueSet/vaccine-credential-vaccine-value-set</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vaccine-code-invariant:CVX code should be provided if an applicable CVX code exists. {coding.where($this.memberOf('http://hl7.org/fhir/uv/smarthealthcards-vaccination/ValueSet/vaccine-credential-cvx-value-set').not()).exists()}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -650,114 +644,6 @@
     <t>FiveWs.where[x]</t>
   </si>
   <si>
-    <t>Immunization.location.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Immunization.location.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Immunization.location.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Immunization.location.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Immunization.location.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.location.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Immunization.manufacturer</t>
   </si>
   <si>
@@ -780,24 +666,6 @@
     <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacuturerOrganization/name</t>
   </si>
   <si>
-    <t>Immunization.manufacturer.id</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.extension</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.reference</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.type</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.manufacturer.display</t>
-  </si>
-  <si>
     <t>Immunization.lotNumber</t>
   </si>
   <si>
@@ -925,7 +793,25 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Immunization.performer.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -989,24 +875,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.id</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.extension</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.reference</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.type</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.identifier</t>
-  </si>
-  <si>
-    <t>Immunization.performer.actor.display</t>
   </si>
   <si>
     <t>Immunization.note</t>
@@ -1502,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1538,7 +1406,7 @@
     <col min="25" max="25" width="96.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.85546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3129,27 +2997,27 @@
         <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3172,13 +3040,13 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3229,7 +3097,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>51</v>
@@ -3244,16 +3112,16 @@
         <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3261,7 +3129,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3284,13 +3152,13 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3341,7 +3209,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3356,16 +3224,16 @@
         <v>64</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3373,7 +3241,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3396,16 +3264,16 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3443,17 +3311,17 @@
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>51</v>
@@ -3468,24 +3336,24 @@
         <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3508,13 +3376,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3565,7 +3433,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3586,10 +3454,10 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3597,7 +3465,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3620,16 +3488,16 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3679,7 +3547,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3697,13 +3565,13 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3711,7 +3579,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3737,13 +3605,13 @@
         <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3773,7 +3641,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3791,7 +3659,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3809,13 +3677,13 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3823,7 +3691,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3846,13 +3714,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3903,7 +3771,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3918,24 +3786,24 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3943,13 +3811,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3958,7 +3826,7 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>203</v>
@@ -4015,25 +3883,25 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>206</v>
@@ -4042,26 +3910,26 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4070,17 +3938,15 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4117,51 +3983,51 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4181,20 +4047,18 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -4243,7 +4107,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4252,7 +4116,7 @@
         <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>64</v>
@@ -4261,10 +4125,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4275,7 +4139,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4295,20 +4159,18 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4335,11 +4197,9 @@
       <c r="W25" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="X25" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4357,7 +4217,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4375,21 +4235,21 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4409,20 +4269,18 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4447,13 +4305,11 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4471,7 +4327,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4489,21 +4345,21 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4511,32 +4367,30 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4603,10 +4457,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4617,7 +4471,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4628,7 +4482,7 @@
         <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>52</v>
@@ -4637,16 +4491,16 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4697,13 +4551,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4712,24 +4566,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4755,10 +4609,10 @@
         <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4809,7 +4663,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4830,7 +4684,7 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4841,7 +4695,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4870,7 +4724,7 @@
         <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>101</v>
@@ -4911,19 +4765,19 @@
         <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4944,7 +4798,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4955,41 +4809,43 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>41</v>
       </c>
@@ -5037,19 +4893,19 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
@@ -5069,7 +4925,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5092,17 +4948,15 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5130,10 +4984,10 @@
         <v>132</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5151,7 +5005,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5166,13 +5020,13 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>95</v>
+        <v>267</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5181,9 +5035,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5191,13 +5045,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5206,16 +5060,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>110</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5265,10 +5119,10 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>51</v>
@@ -5280,24 +5134,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5305,13 +5159,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5320,17 +5174,15 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5379,13 +5231,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -5394,13 +5246,13 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5409,9 +5261,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5419,13 +5271,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -5434,13 +5286,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5467,13 +5319,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5491,39 +5343,39 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5534,7 +5386,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5546,13 +5398,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5603,13 +5455,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5618,13 +5470,13 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5635,7 +5487,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5652,26 +5504,30 @@
         <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="Q37" t="s" s="2">
         <v>41</v>
       </c>
@@ -5691,11 +5547,13 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
@@ -5713,7 +5571,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5725,27 +5583,27 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>267</v>
+        <v>95</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5756,7 +5614,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5771,10 +5629,10 @@
         <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5801,11 +5659,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5823,13 +5683,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5841,21 +5701,21 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>274</v>
+        <v>95</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5866,7 +5726,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5878,13 +5738,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5935,28 +5795,28 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5965,9 +5825,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5975,28 +5835,28 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6047,28 +5907,28 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6079,18 +5939,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
@@ -6102,15 +5962,17 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6159,19 +6021,19 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
@@ -6180,7 +6042,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6191,11 +6053,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6208,24 +6070,26 @@
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6273,7 +6137,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6294,7 +6158,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6305,43 +6169,39 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6389,25 +6249,25 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>95</v>
@@ -6421,7 +6281,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6441,16 +6301,16 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6477,13 +6337,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6501,7 +6361,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6516,13 +6376,13 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6531,9 +6391,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6541,32 +6401,30 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6615,10 +6473,10 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>51</v>
@@ -6630,16 +6488,16 @@
         <v>64</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6647,7 +6505,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6670,13 +6528,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6727,7 +6585,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6739,16 +6597,16 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -6759,11 +6617,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6782,17 +6640,15 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6817,31 +6673,31 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6853,16 +6709,16 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>334</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -6873,7 +6729,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6893,20 +6749,18 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6931,13 +6785,11 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6955,7 +6807,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6964,7 +6816,7 @@
         <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>64</v>
@@ -6987,7 +6839,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6998,7 +6850,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7007,19 +6859,19 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7045,13 +6897,13 @@
         <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -7069,13 +6921,13 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -7087,10 +6939,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>343</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7101,7 +6953,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7121,20 +6973,18 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7183,7 +7033,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7195,7 +7045,7 @@
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
@@ -7204,7 +7054,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7213,41 +7063,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7297,19 +7147,19 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
@@ -7318,7 +7168,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7329,11 +7179,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7346,22 +7196,26 @@
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7409,7 +7263,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7421,16 +7275,16 @@
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>322</v>
+        <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>323</v>
+        <v>95</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7441,7 +7295,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7452,7 +7306,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
@@ -7464,13 +7318,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7497,13 +7351,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7521,13 +7375,13 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
@@ -7536,13 +7390,13 @@
         <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>331</v>
+        <v>170</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7553,7 +7407,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7564,7 +7418,7 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7576,13 +7430,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7633,13 +7487,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7648,13 +7502,13 @@
         <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7665,7 +7519,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7682,30 +7536,26 @@
         <v>41</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>41</v>
       </c>
@@ -7749,7 +7599,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7761,16 +7611,16 @@
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>341</v>
+        <v>64</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>95</v>
+        <v>362</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7779,9 +7629,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7789,13 +7639,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -7804,13 +7654,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7837,13 +7687,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -7861,7 +7711,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7893,7 +7743,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7904,7 +7754,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -7916,13 +7766,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7973,19 +7823,19 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
@@ -7994,7 +7844,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8005,18 +7855,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8028,15 +7878,17 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8085,19 +7937,19 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
@@ -8106,7 +7958,7 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8117,11 +7969,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8134,24 +7986,26 @@
         <v>41</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8199,7 +8053,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8220,7 +8074,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8231,43 +8085,39 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8315,19 +8165,19 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>295</v>
+        <v>369</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8347,7 +8197,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8370,13 +8220,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8427,7 +8277,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8445,7 +8295,7 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>358</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>95</v>
@@ -8459,7 +8309,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8470,7 +8320,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8482,13 +8332,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8515,13 +8365,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>41</v>
+        <v>378</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8539,13 +8389,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8569,9 +8419,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8579,13 +8429,13 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -8594,15 +8444,17 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8651,10 +8503,10 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>51</v>
@@ -8669,7 +8521,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>95</v>
@@ -8683,7 +8535,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8706,15 +8558,17 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -8763,7 +8617,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8781,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>95</v>
@@ -8793,2040 +8647,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X66" s="2"/>
-      <c r="Y66" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN82">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10836,7 +8658,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
+++ b/StructureDefinition-Vaccine-Certificate-Immunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -451,7 +451,13 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/smarthealthcards-vaccination/ValueSet/vaccine-credential-vaccine-value-set</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The code for vaccine product administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -906,9 +912,6 @@
   </si>
   <si>
     <t>Reasons why the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>The reason why a vaccine was administered.</t>
@@ -2963,11 +2966,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -3000,24 +3005,24 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3040,13 +3045,13 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3097,7 +3102,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>51</v>
@@ -3112,16 +3117,16 @@
         <v>64</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3129,7 +3134,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3152,13 +3157,13 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3209,7 +3214,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3224,16 +3229,16 @@
         <v>64</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3241,7 +3246,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3264,16 +3269,16 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3311,17 +3316,17 @@
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>51</v>
@@ -3336,24 +3341,24 @@
         <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3376,13 +3381,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3433,7 +3438,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3454,10 +3459,10 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3465,7 +3470,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3488,16 +3493,16 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3547,7 +3552,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3565,13 +3570,13 @@
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3579,7 +3584,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3605,13 +3610,13 @@
         <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3641,7 +3646,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3659,7 +3664,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3677,13 +3682,13 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3691,7 +3696,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3714,13 +3719,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3771,7 +3776,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3786,16 +3791,16 @@
         <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3803,7 +3808,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3826,13 +3831,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3883,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3901,21 +3906,21 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3941,10 +3946,10 @@
         <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3995,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4007,27 +4012,27 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4050,13 +4055,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4107,7 +4112,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4125,10 +4130,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4139,7 +4144,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4165,10 +4170,10 @@
         <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4199,7 +4204,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4217,7 +4222,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4235,21 +4240,21 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4275,10 +4280,10 @@
         <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4309,7 +4314,7 @@
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4327,7 +4332,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4345,21 +4350,21 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4382,13 +4387,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4439,7 +4444,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4457,10 +4462,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4471,7 +4476,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4494,13 +4499,13 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4551,7 +4556,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4566,13 +4571,13 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4583,7 +4588,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4609,10 +4614,10 @@
         <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4663,7 +4668,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4684,7 +4689,7 @@
         <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4695,7 +4700,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4724,7 +4729,7 @@
         <v>99</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>101</v>
@@ -4777,7 +4782,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4798,7 +4803,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4809,11 +4814,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4835,10 +4840,10 @@
         <v>98</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>101</v>
@@ -4893,7 +4898,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4925,7 +4930,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4951,10 +4956,10 @@
         <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4984,10 +4989,10 @@
         <v>132</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5005,7 +5010,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5020,13 +5025,13 @@
         <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5037,7 +5042,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5060,16 +5065,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5119,7 +5124,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5134,16 +5139,16 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5151,7 +5156,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5174,13 +5179,13 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5231,7 +5236,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5246,13 +5251,13 @@
         <v>64</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5263,7 +5268,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5289,10 +5294,10 @@
         <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5319,13 +5324,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5343,7 +5348,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5358,13 +5363,13 @@
         <v>64</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5375,7 +5380,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5398,13 +5403,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5455,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5470,7 +5475,7 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -5487,7 +5492,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5510,23 +5515,23 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>41</v>
@@ -5571,7 +5576,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5583,13 +5588,13 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>95</v>
@@ -5603,7 +5608,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5629,10 +5634,10 @@
         <v>128</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5659,13 +5664,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5683,7 +5688,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5715,7 +5720,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5738,13 +5743,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5795,7 +5800,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5807,7 +5812,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -5827,7 +5832,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5853,10 +5858,10 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5907,7 +5912,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5928,7 +5933,7 @@
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -5939,7 +5944,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5968,7 +5973,7 @@
         <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>101</v>
@@ -6021,7 +6026,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6042,7 +6047,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6053,11 +6058,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6079,10 +6084,10 @@
         <v>98</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>101</v>
@@ -6137,7 +6142,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6169,7 +6174,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6195,10 +6200,10 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6249,7 +6254,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6267,7 +6272,7 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>95</v>
@@ -6281,7 +6286,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6307,10 +6312,10 @@
         <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6361,7 +6366,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6393,7 +6398,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6416,13 +6421,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6473,7 +6478,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6491,7 +6496,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>95</v>
@@ -6505,7 +6510,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6528,13 +6533,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6585,7 +6590,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6603,7 +6608,7 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>95</v>
@@ -6617,7 +6622,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6643,10 +6648,10 @@
         <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6673,13 +6678,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -6697,7 +6702,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6715,7 +6720,7 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>95</v>
@@ -6729,7 +6734,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6755,10 +6760,10 @@
         <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6789,7 +6794,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -6807,7 +6812,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6839,7 +6844,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6862,16 +6867,16 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6921,7 +6926,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6939,10 +6944,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -6953,7 +6958,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6979,10 +6984,10 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7033,7 +7038,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7054,7 +7059,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7065,7 +7070,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7094,7 +7099,7 @@
         <v>99</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>101</v>
@@ -7147,7 +7152,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7168,7 +7173,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7179,11 +7184,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7205,10 +7210,10 @@
         <v>98</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>101</v>
@@ -7263,7 +7268,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7295,7 +7300,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7318,13 +7323,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7375,7 +7380,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7393,10 +7398,10 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7407,7 +7412,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7430,13 +7435,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7487,7 +7492,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7505,10 +7510,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7519,7 +7524,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7542,13 +7547,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7599,7 +7604,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7617,10 +7622,10 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -7631,7 +7636,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7654,13 +7659,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7711,7 +7716,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7743,7 +7748,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7769,10 +7774,10 @@
         <v>53</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7823,7 +7828,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7844,7 +7849,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -7855,7 +7860,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7884,7 +7889,7 @@
         <v>99</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>101</v>
@@ -7937,7 +7942,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -7958,7 +7963,7 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -7969,11 +7974,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7995,10 +8000,10 @@
         <v>98</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>101</v>
@@ -8053,7 +8058,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8085,7 +8090,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8111,10 +8116,10 @@
         <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8165,7 +8170,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8197,7 +8202,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8220,13 +8225,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8277,7 +8282,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8309,7 +8314,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8335,10 +8340,10 @@
         <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8365,13 +8370,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8389,7 +8394,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8421,7 +8426,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8444,16 +8449,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8503,7 +8508,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>51</v>
@@ -8535,7 +8540,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8558,16 +8563,16 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8617,7 +8622,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
